--- a/Analysis Project Dashboard.xlsx
+++ b/Analysis Project Dashboard.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukbiocentre-my.sharepoint.com/personal/hema_ramasamy_ukbiocentre_com/Documents/SSD_Core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{15EE82DE-5123-4DFF-9921-4B75CAE48CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2091184C-F876-48BD-914D-F13196931042}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="8_{15EE82DE-5123-4DFF-9921-4B75CAE48CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4C8FD40-6D67-43C0-9E88-B857C546F7A0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CB353F2-28B3-438A-97A4-6330A8EA22E2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2022" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Projects</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Mental health</t>
   </si>
   <si>
-    <t>Bioresource Saliva</t>
-  </si>
-  <si>
     <t>LLR</t>
   </si>
   <si>
@@ -103,15 +100,9 @@
     <t>COVIG</t>
   </si>
   <si>
-    <t>Recovery (receipt only)</t>
-  </si>
-  <si>
     <t>MITRE</t>
   </si>
   <si>
-    <t>DFP (Storage)</t>
-  </si>
-  <si>
     <t>BIO - IMID</t>
   </si>
   <si>
@@ -137,13 +128,86 @@
   </si>
   <si>
     <t>OFH</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>BBP Name</t>
+  </si>
+  <si>
+    <t>RTB-NAF</t>
+  </si>
+  <si>
+    <t>RTB-STR</t>
+  </si>
+  <si>
+    <t>RTB-CNS</t>
+  </si>
+  <si>
+    <t>RTB-GEN</t>
+  </si>
+  <si>
+    <t>RTB-CVD</t>
+  </si>
+  <si>
+    <t>RTB-IBD</t>
+  </si>
+  <si>
+    <t>RTB-IMI</t>
+  </si>
+  <si>
+    <t>BIO - STRIDES</t>
+  </si>
+  <si>
+    <t>comes in with 1 x edta and 1 x serum. we only aliquot and store. No DNA extractions performed for RTB -STR</t>
+  </si>
+  <si>
+    <t>RTB- PDT</t>
+  </si>
+  <si>
+    <t>1 x serum tube only. only aliquoting/storage and no extractions are performed</t>
+  </si>
+  <si>
+    <t>RDC</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>No extraction,receipt only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFP </t>
+  </si>
+  <si>
+    <t>No extraction,Storage</t>
+  </si>
+  <si>
+    <t>Not in BBP</t>
+  </si>
+  <si>
+    <t>RTB-MHS</t>
+  </si>
+  <si>
+    <t>DecodeME</t>
+  </si>
+  <si>
+    <t>RECOVERY</t>
+  </si>
+  <si>
+    <t>* we get 2 x EDTA and 1 serum tube. 1x EDTA (obtain plasma) and 1 x serum tube is aliquoted using tecan and then sent to storage. the other 1 x EDTA is used for DNA extraction on chemagens.
+* sometimes we receive isohelix tubes with saliva for these projects separately and we run those on KFs only.</t>
+  </si>
+  <si>
+    <t>Bioresource</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,13 +218,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,8 +261,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -197,20 +321,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,418 +778,1048 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248FE4D0-756B-42E7-8685-A07F0B6E2499}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:AO150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="A1:L22"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="95.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="41" width="8.88671875" style="4"/>
+    <col min="42" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="29"/>
+    </row>
+    <row r="10" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="22"/>
+    </row>
+    <row r="20" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="B20" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="24"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="24"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="24"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="24"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="24"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="24"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="24"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="24"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="24"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="24"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="24"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="24"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="24"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="24"/>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="24"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="24"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="24"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="24"/>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="24"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="24"/>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="24"/>
+      <c r="O42" s="6"/>
+    </row>
+    <row r="43" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="24"/>
+      <c r="O43" s="6"/>
+    </row>
+    <row r="44" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="24"/>
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="24"/>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="24"/>
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="24"/>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="24"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="24"/>
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="24"/>
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="24"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="24"/>
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="24"/>
+      <c r="O53" s="6"/>
+    </row>
+    <row r="54" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="24"/>
+      <c r="O54" s="6"/>
+    </row>
+    <row r="55" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="24"/>
+      <c r="O55" s="6"/>
+    </row>
+    <row r="56" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="24"/>
+      <c r="O56" s="6"/>
+    </row>
+    <row r="57" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="24"/>
+      <c r="O57" s="6"/>
+    </row>
+    <row r="58" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="24"/>
+      <c r="O58" s="6"/>
+    </row>
+    <row r="59" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="24"/>
+      <c r="O59" s="6"/>
+    </row>
+    <row r="60" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="24"/>
+      <c r="O60" s="6"/>
+    </row>
+    <row r="61" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="24"/>
+      <c r="O61" s="6"/>
+    </row>
+    <row r="62" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="24"/>
+      <c r="O62" s="6"/>
+    </row>
+    <row r="63" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="24"/>
+      <c r="O63" s="6"/>
+    </row>
+    <row r="64" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="24"/>
+      <c r="O64" s="6"/>
+    </row>
+    <row r="65" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="24"/>
+      <c r="O65" s="6"/>
+    </row>
+    <row r="66" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="24"/>
+      <c r="O66" s="6"/>
+    </row>
+    <row r="67" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="24"/>
+      <c r="O67" s="6"/>
+    </row>
+    <row r="68" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="24"/>
+      <c r="O68" s="6"/>
+    </row>
+    <row r="69" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="24"/>
+      <c r="O69" s="6"/>
+    </row>
+    <row r="70" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="24"/>
+      <c r="O70" s="6"/>
+    </row>
+    <row r="71" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="24"/>
+      <c r="O71" s="6"/>
+    </row>
+    <row r="72" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="24"/>
+      <c r="O72" s="6"/>
+    </row>
+    <row r="73" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="24"/>
+      <c r="O73" s="6"/>
+    </row>
+    <row r="74" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="24"/>
+      <c r="O74" s="6"/>
+    </row>
+    <row r="75" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="24"/>
+      <c r="O75" s="6"/>
+    </row>
+    <row r="76" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="24"/>
+      <c r="O76" s="6"/>
+    </row>
+    <row r="77" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="24"/>
+      <c r="O77" s="6"/>
+    </row>
+    <row r="78" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="24"/>
+      <c r="O78" s="6"/>
+    </row>
+    <row r="79" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="24"/>
+      <c r="O79" s="6"/>
+    </row>
+    <row r="80" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="24"/>
+      <c r="O80" s="6"/>
+    </row>
+    <row r="81" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="24"/>
+      <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="24"/>
+      <c r="O82" s="6"/>
+    </row>
+    <row r="83" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="24"/>
+      <c r="O83" s="6"/>
+    </row>
+    <row r="84" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="24"/>
+      <c r="O84" s="6"/>
+    </row>
+    <row r="85" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="24"/>
+      <c r="O85" s="6"/>
+    </row>
+    <row r="86" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="24"/>
+      <c r="O86" s="6"/>
+    </row>
+    <row r="87" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="24"/>
+      <c r="O87" s="6"/>
+    </row>
+    <row r="88" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="24"/>
+      <c r="O88" s="6"/>
+    </row>
+    <row r="89" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="24"/>
+      <c r="O89" s="6"/>
+    </row>
+    <row r="90" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="24"/>
+      <c r="O90" s="6"/>
+    </row>
+    <row r="91" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="24"/>
+      <c r="O91" s="6"/>
+    </row>
+    <row r="92" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="24"/>
+      <c r="O92" s="6"/>
+    </row>
+    <row r="93" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="24"/>
+      <c r="O93" s="6"/>
+    </row>
+    <row r="94" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="24"/>
+      <c r="O94" s="6"/>
+    </row>
+    <row r="95" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="24"/>
+      <c r="O95" s="6"/>
+    </row>
+    <row r="96" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="24"/>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="24"/>
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="24"/>
+      <c r="O98" s="6"/>
+    </row>
+    <row r="99" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="24"/>
+      <c r="O99" s="6"/>
+    </row>
+    <row r="100" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="24"/>
+      <c r="O100" s="6"/>
+    </row>
+    <row r="101" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="24"/>
+      <c r="O101" s="6"/>
+    </row>
+    <row r="102" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="24"/>
+      <c r="O102" s="6"/>
+    </row>
+    <row r="103" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="24"/>
+      <c r="O103" s="6"/>
+    </row>
+    <row r="104" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="24"/>
+      <c r="O104" s="6"/>
+    </row>
+    <row r="105" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="24"/>
+      <c r="O105" s="6"/>
+    </row>
+    <row r="106" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="24"/>
+      <c r="O106" s="6"/>
+    </row>
+    <row r="107" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="24"/>
+      <c r="O107" s="6"/>
+    </row>
+    <row r="108" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="24"/>
+      <c r="O108" s="6"/>
+    </row>
+    <row r="109" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="24"/>
+      <c r="O109" s="6"/>
+    </row>
+    <row r="110" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="24"/>
+      <c r="O110" s="6"/>
+    </row>
+    <row r="111" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="24"/>
+      <c r="O111" s="6"/>
+    </row>
+    <row r="112" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="24"/>
+      <c r="O112" s="6"/>
+    </row>
+    <row r="113" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="24"/>
+      <c r="O113" s="6"/>
+    </row>
+    <row r="114" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="24"/>
+      <c r="O114" s="6"/>
+    </row>
+    <row r="115" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="24"/>
+      <c r="O115" s="6"/>
+    </row>
+    <row r="116" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="24"/>
+      <c r="O116" s="6"/>
+    </row>
+    <row r="117" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="24"/>
+      <c r="O117" s="6"/>
+    </row>
+    <row r="118" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="24"/>
+      <c r="O118" s="6"/>
+    </row>
+    <row r="119" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="24"/>
+      <c r="O119" s="6"/>
+    </row>
+    <row r="120" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C120" s="24"/>
+      <c r="O120" s="6"/>
+    </row>
+    <row r="121" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="24"/>
+      <c r="O121" s="6"/>
+    </row>
+    <row r="122" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="24"/>
+      <c r="O122" s="6"/>
+    </row>
+    <row r="123" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="24"/>
+      <c r="O123" s="6"/>
+    </row>
+    <row r="124" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="24"/>
+      <c r="O124" s="6"/>
+    </row>
+    <row r="125" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="24"/>
+      <c r="O125" s="6"/>
+    </row>
+    <row r="126" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="24"/>
+      <c r="O126" s="6"/>
+    </row>
+    <row r="127" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="24"/>
+      <c r="O127" s="6"/>
+    </row>
+    <row r="128" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="24"/>
+      <c r="O128" s="6"/>
+    </row>
+    <row r="129" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="24"/>
+      <c r="O129" s="6"/>
+    </row>
+    <row r="130" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C130" s="24"/>
+      <c r="O130" s="6"/>
+    </row>
+    <row r="131" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C131" s="24"/>
+      <c r="O131" s="6"/>
+    </row>
+    <row r="132" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C132" s="24"/>
+      <c r="O132" s="6"/>
+    </row>
+    <row r="133" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="24"/>
+      <c r="O133" s="6"/>
+    </row>
+    <row r="134" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="24"/>
+      <c r="O134" s="6"/>
+    </row>
+    <row r="135" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="24"/>
+      <c r="O135" s="6"/>
+    </row>
+    <row r="136" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="24"/>
+      <c r="O136" s="6"/>
+    </row>
+    <row r="137" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="24"/>
+      <c r="O137" s="6"/>
+    </row>
+    <row r="138" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="24"/>
+      <c r="O138" s="6"/>
+    </row>
+    <row r="139" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="24"/>
+      <c r="O139" s="6"/>
+    </row>
+    <row r="140" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="24"/>
+      <c r="O140" s="6"/>
+    </row>
+    <row r="141" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="24"/>
+      <c r="O141" s="6"/>
+    </row>
+    <row r="142" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="24"/>
+      <c r="O142" s="6"/>
+    </row>
+    <row r="143" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="24"/>
+      <c r="O143" s="6"/>
+    </row>
+    <row r="144" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="24"/>
+      <c r="O144" s="6"/>
+    </row>
+    <row r="145" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="24"/>
+      <c r="O145" s="6"/>
+    </row>
+    <row r="146" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="24"/>
+      <c r="O146" s="6"/>
+    </row>
+    <row r="147" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="24"/>
+      <c r="O147" s="6"/>
+    </row>
+    <row r="148" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C148" s="24"/>
+      <c r="O148" s="6"/>
+    </row>
+    <row r="149" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="24"/>
+      <c r="O149" s="6"/>
+    </row>
+    <row r="150" spans="3:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="24"/>
+      <c r="O150" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A13:L13"/>
+  <mergeCells count="2">
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="O12:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Analysis Project Dashboard.xlsx
+++ b/Analysis Project Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukbiocentre-my.sharepoint.com/personal/hema_ramasamy_ukbiocentre_com/Documents/SSD_Core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="8_{15EE82DE-5123-4DFF-9921-4B75CAE48CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF97C308-408C-4F42-91B6-5CA647941946}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="8_{15EE82DE-5123-4DFF-9921-4B75CAE48CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{936DF42D-9536-4FB9-853F-76DFBC236A4E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CB353F2-28B3-438A-97A4-6330A8EA22E2}"/>
   </bookViews>
@@ -262,7 +262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,8 +310,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,12 +380,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,8 +497,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -531,7 +543,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,65 +603,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -925,7 +940,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14:Q15"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -944,8 +959,8 @@
     <col min="12" max="12" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.5546875" style="40" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="45" customWidth="1"/>
+    <col min="15" max="15" width="45.5546875" style="28" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="33" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" style="4"/>
     <col min="18" max="19" width="10.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.109375" style="4" bestFit="1" customWidth="1"/>
@@ -969,7 +984,7 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="48" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -999,13 +1014,13 @@
       <c r="O1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="38" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1029,13 +1044,13 @@
       <c r="M2" s="6"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="48" t="s">
+      <c r="P2" s="30"/>
+      <c r="Q2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
     </row>
     <row r="3" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1047,9 +1062,9 @@
       <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1061,15 +1076,15 @@
       <c r="O3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="36" t="s">
+      <c r="P3" s="30"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="T3" s="25" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1095,13 +1110,13 @@
       <c r="M4" s="6"/>
       <c r="N4" s="8"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="37" t="s">
+      <c r="P4" s="30"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37" t="s">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1127,7 +1142,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="8"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="42"/>
+      <c r="P5" s="30"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1149,7 +1164,7 @@
       <c r="M6" s="6"/>
       <c r="N6" s="8"/>
       <c r="O6" s="9"/>
-      <c r="P6" s="42"/>
+      <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1171,7 +1186,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="8"/>
       <c r="O7" s="9"/>
-      <c r="P7" s="42"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
@@ -1195,7 +1210,7 @@
       <c r="O8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="42"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -1215,7 +1230,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="19"/>
       <c r="O9" s="20"/>
-      <c r="P9" s="42"/>
+      <c r="P9" s="30"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -1235,7 +1250,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="19"/>
       <c r="O10" s="20"/>
-      <c r="P10" s="42"/>
+      <c r="P10" s="30"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -1257,33 +1272,33 @@
       <c r="O11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="42"/>
+      <c r="P11" s="30"/>
     </row>
     <row r="12" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="48" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
     </row>
     <row r="13" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -1297,7 +1312,7 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="23"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1306,18 +1321,18 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="36" t="s">
+      <c r="P13" s="32"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="S13" s="36" t="s">
+      <c r="S13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="36" t="s">
+      <c r="T13" s="25" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1342,18 +1357,18 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="37" t="s">
+      <c r="O14" s="41"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R14" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="S14" s="37" t="s">
+      <c r="S14" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="T14" s="37" t="s">
+      <c r="T14" s="26" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1369,7 +1384,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="23"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1378,18 +1393,18 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="37" t="s">
+      <c r="O15" s="41"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="R15" s="37" t="s">
+      <c r="R15" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="S15" s="37" t="s">
+      <c r="S15" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="T15" s="37" t="s">
+      <c r="T15" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1405,7 +1420,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="23"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1414,8 +1429,8 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="44"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
@@ -1429,7 +1444,7 @@
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="23"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1438,8 +1453,8 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="44"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="32"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
@@ -1453,7 +1468,7 @@
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="23"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1462,8 +1477,8 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="44"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -1477,7 +1492,7 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1486,8 +1501,8 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="44"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -1510,8 +1525,8 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="44"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -1537,7 +1552,7 @@
       <c r="O21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="P21" s="42"/>
+      <c r="P21" s="30"/>
     </row>
     <row r="22" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
@@ -1563,652 +1578,652 @@
       <c r="O22" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="P22" s="42"/>
+      <c r="P22" s="30"/>
     </row>
     <row r="23" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="15"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="45"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="33"/>
     </row>
     <row r="24" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="15"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="45"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="33"/>
     </row>
     <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="15"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="45"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="33"/>
     </row>
     <row r="26" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="15"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="45"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="33"/>
     </row>
     <row r="27" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="15"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="45"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="33"/>
     </row>
     <row r="28" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="15"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="45"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="33"/>
     </row>
     <row r="29" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="15"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="45"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="33"/>
     </row>
     <row r="30" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="15"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="45"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="33"/>
     </row>
     <row r="31" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="15"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="45"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="33"/>
     </row>
     <row r="32" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="15"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="45"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="33"/>
     </row>
     <row r="33" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="15"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="45"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="33"/>
     </row>
     <row r="34" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="15"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="45"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="33"/>
     </row>
     <row r="35" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="15"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="45"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="33"/>
     </row>
     <row r="36" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="15"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="45"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="33"/>
     </row>
     <row r="37" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="15"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="45"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="33"/>
     </row>
     <row r="38" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="15"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="45"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="33"/>
     </row>
     <row r="39" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="15"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="45"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="33"/>
     </row>
     <row r="40" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="15"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="45"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="33"/>
     </row>
     <row r="41" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="15"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="45"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="33"/>
     </row>
     <row r="42" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="15"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="45"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="33"/>
     </row>
     <row r="43" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="15"/>
-      <c r="O43" s="39"/>
-      <c r="P43" s="45"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="33"/>
     </row>
     <row r="44" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="15"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="45"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="33"/>
     </row>
     <row r="45" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="15"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="45"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="33"/>
     </row>
     <row r="46" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="15"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="45"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="33"/>
     </row>
     <row r="47" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="15"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="45"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="33"/>
     </row>
     <row r="48" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="15"/>
-      <c r="O48" s="39"/>
-      <c r="P48" s="45"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="33"/>
     </row>
     <row r="49" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="15"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="45"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="33"/>
     </row>
     <row r="50" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="15"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="45"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="33"/>
     </row>
     <row r="51" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="15"/>
-      <c r="O51" s="39"/>
-      <c r="P51" s="45"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="33"/>
     </row>
     <row r="52" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="15"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="45"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="33"/>
     </row>
     <row r="53" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="15"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="45"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="33"/>
     </row>
     <row r="54" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="15"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="45"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="33"/>
     </row>
     <row r="55" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="15"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="45"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="33"/>
     </row>
     <row r="56" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="15"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="45"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="33"/>
     </row>
     <row r="57" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="15"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="45"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="33"/>
     </row>
     <row r="58" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="15"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="45"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="33"/>
     </row>
     <row r="59" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="15"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="45"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="33"/>
     </row>
     <row r="60" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="15"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="45"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="33"/>
     </row>
     <row r="61" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="15"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="45"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="33"/>
     </row>
     <row r="62" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="15"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="45"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="33"/>
     </row>
     <row r="63" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="15"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="45"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="33"/>
     </row>
     <row r="64" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="15"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="45"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="33"/>
     </row>
     <row r="65" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="15"/>
-      <c r="O65" s="39"/>
-      <c r="P65" s="45"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="33"/>
     </row>
     <row r="66" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="15"/>
-      <c r="O66" s="39"/>
-      <c r="P66" s="45"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="33"/>
     </row>
     <row r="67" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C67" s="15"/>
-      <c r="O67" s="39"/>
-      <c r="P67" s="45"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="33"/>
     </row>
     <row r="68" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C68" s="15"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="45"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="33"/>
     </row>
     <row r="69" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C69" s="15"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="45"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="33"/>
     </row>
     <row r="70" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C70" s="15"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="45"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="33"/>
     </row>
     <row r="71" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C71" s="15"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="45"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="33"/>
     </row>
     <row r="72" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C72" s="15"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="45"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="33"/>
     </row>
     <row r="73" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C73" s="15"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="45"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="33"/>
     </row>
     <row r="74" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C74" s="15"/>
-      <c r="O74" s="39"/>
-      <c r="P74" s="45"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="33"/>
     </row>
     <row r="75" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C75" s="15"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="45"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="33"/>
     </row>
     <row r="76" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C76" s="15"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="45"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="33"/>
     </row>
     <row r="77" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C77" s="15"/>
-      <c r="O77" s="39"/>
-      <c r="P77" s="45"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="33"/>
     </row>
     <row r="78" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C78" s="15"/>
-      <c r="O78" s="39"/>
-      <c r="P78" s="45"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="33"/>
     </row>
     <row r="79" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C79" s="15"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="45"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="33"/>
     </row>
     <row r="80" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C80" s="15"/>
-      <c r="O80" s="39"/>
-      <c r="P80" s="45"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="33"/>
     </row>
     <row r="81" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C81" s="15"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="45"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="33"/>
     </row>
     <row r="82" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C82" s="15"/>
-      <c r="O82" s="39"/>
-      <c r="P82" s="45"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="33"/>
     </row>
     <row r="83" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C83" s="15"/>
-      <c r="O83" s="39"/>
-      <c r="P83" s="45"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="33"/>
     </row>
     <row r="84" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C84" s="15"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="45"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="33"/>
     </row>
     <row r="85" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C85" s="15"/>
-      <c r="O85" s="39"/>
-      <c r="P85" s="45"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="33"/>
     </row>
     <row r="86" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C86" s="15"/>
-      <c r="O86" s="39"/>
-      <c r="P86" s="45"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="33"/>
     </row>
     <row r="87" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C87" s="15"/>
-      <c r="O87" s="39"/>
-      <c r="P87" s="45"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="33"/>
     </row>
     <row r="88" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C88" s="15"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="45"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="33"/>
     </row>
     <row r="89" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C89" s="15"/>
-      <c r="O89" s="39"/>
-      <c r="P89" s="45"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="33"/>
     </row>
     <row r="90" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C90" s="15"/>
-      <c r="O90" s="39"/>
-      <c r="P90" s="45"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="33"/>
     </row>
     <row r="91" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C91" s="15"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="45"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="33"/>
     </row>
     <row r="92" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C92" s="15"/>
-      <c r="O92" s="39"/>
-      <c r="P92" s="45"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="33"/>
     </row>
     <row r="93" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C93" s="15"/>
-      <c r="O93" s="39"/>
-      <c r="P93" s="45"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="33"/>
     </row>
     <row r="94" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C94" s="15"/>
-      <c r="O94" s="39"/>
-      <c r="P94" s="45"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="33"/>
     </row>
     <row r="95" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C95" s="15"/>
-      <c r="O95" s="39"/>
-      <c r="P95" s="45"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="33"/>
     </row>
     <row r="96" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C96" s="15"/>
-      <c r="O96" s="39"/>
-      <c r="P96" s="45"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="33"/>
     </row>
     <row r="97" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C97" s="15"/>
-      <c r="O97" s="39"/>
-      <c r="P97" s="45"/>
+      <c r="O97" s="27"/>
+      <c r="P97" s="33"/>
     </row>
     <row r="98" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C98" s="15"/>
-      <c r="O98" s="39"/>
-      <c r="P98" s="45"/>
+      <c r="O98" s="27"/>
+      <c r="P98" s="33"/>
     </row>
     <row r="99" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C99" s="15"/>
-      <c r="O99" s="39"/>
-      <c r="P99" s="45"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="33"/>
     </row>
     <row r="100" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C100" s="15"/>
-      <c r="O100" s="39"/>
-      <c r="P100" s="45"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="33"/>
     </row>
     <row r="101" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C101" s="15"/>
-      <c r="O101" s="39"/>
-      <c r="P101" s="45"/>
+      <c r="O101" s="27"/>
+      <c r="P101" s="33"/>
     </row>
     <row r="102" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C102" s="15"/>
-      <c r="O102" s="39"/>
-      <c r="P102" s="45"/>
+      <c r="O102" s="27"/>
+      <c r="P102" s="33"/>
     </row>
     <row r="103" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C103" s="15"/>
-      <c r="O103" s="39"/>
-      <c r="P103" s="45"/>
+      <c r="O103" s="27"/>
+      <c r="P103" s="33"/>
     </row>
     <row r="104" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C104" s="15"/>
-      <c r="O104" s="39"/>
-      <c r="P104" s="45"/>
+      <c r="O104" s="27"/>
+      <c r="P104" s="33"/>
     </row>
     <row r="105" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C105" s="15"/>
-      <c r="O105" s="39"/>
-      <c r="P105" s="45"/>
+      <c r="O105" s="27"/>
+      <c r="P105" s="33"/>
     </row>
     <row r="106" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C106" s="15"/>
-      <c r="O106" s="39"/>
-      <c r="P106" s="45"/>
+      <c r="O106" s="27"/>
+      <c r="P106" s="33"/>
     </row>
     <row r="107" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C107" s="15"/>
-      <c r="O107" s="39"/>
-      <c r="P107" s="45"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="33"/>
     </row>
     <row r="108" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C108" s="15"/>
-      <c r="O108" s="39"/>
-      <c r="P108" s="45"/>
+      <c r="O108" s="27"/>
+      <c r="P108" s="33"/>
     </row>
     <row r="109" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C109" s="15"/>
-      <c r="O109" s="39"/>
-      <c r="P109" s="45"/>
+      <c r="O109" s="27"/>
+      <c r="P109" s="33"/>
     </row>
     <row r="110" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C110" s="15"/>
-      <c r="O110" s="39"/>
-      <c r="P110" s="45"/>
+      <c r="O110" s="27"/>
+      <c r="P110" s="33"/>
     </row>
     <row r="111" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C111" s="15"/>
-      <c r="O111" s="39"/>
-      <c r="P111" s="45"/>
+      <c r="O111" s="27"/>
+      <c r="P111" s="33"/>
     </row>
     <row r="112" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C112" s="15"/>
-      <c r="O112" s="39"/>
-      <c r="P112" s="45"/>
+      <c r="O112" s="27"/>
+      <c r="P112" s="33"/>
     </row>
     <row r="113" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C113" s="15"/>
-      <c r="O113" s="39"/>
-      <c r="P113" s="45"/>
+      <c r="O113" s="27"/>
+      <c r="P113" s="33"/>
     </row>
     <row r="114" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C114" s="15"/>
-      <c r="O114" s="39"/>
-      <c r="P114" s="45"/>
+      <c r="O114" s="27"/>
+      <c r="P114" s="33"/>
     </row>
     <row r="115" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C115" s="15"/>
-      <c r="O115" s="39"/>
-      <c r="P115" s="45"/>
+      <c r="O115" s="27"/>
+      <c r="P115" s="33"/>
     </row>
     <row r="116" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C116" s="15"/>
-      <c r="O116" s="39"/>
-      <c r="P116" s="45"/>
+      <c r="O116" s="27"/>
+      <c r="P116" s="33"/>
     </row>
     <row r="117" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C117" s="15"/>
-      <c r="O117" s="39"/>
-      <c r="P117" s="45"/>
+      <c r="O117" s="27"/>
+      <c r="P117" s="33"/>
     </row>
     <row r="118" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C118" s="15"/>
-      <c r="O118" s="39"/>
-      <c r="P118" s="45"/>
+      <c r="O118" s="27"/>
+      <c r="P118" s="33"/>
     </row>
     <row r="119" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C119" s="15"/>
-      <c r="O119" s="39"/>
-      <c r="P119" s="45"/>
+      <c r="O119" s="27"/>
+      <c r="P119" s="33"/>
     </row>
     <row r="120" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C120" s="15"/>
-      <c r="O120" s="39"/>
-      <c r="P120" s="45"/>
+      <c r="O120" s="27"/>
+      <c r="P120" s="33"/>
     </row>
     <row r="121" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C121" s="15"/>
-      <c r="O121" s="39"/>
-      <c r="P121" s="45"/>
+      <c r="O121" s="27"/>
+      <c r="P121" s="33"/>
     </row>
     <row r="122" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C122" s="15"/>
-      <c r="O122" s="39"/>
-      <c r="P122" s="45"/>
+      <c r="O122" s="27"/>
+      <c r="P122" s="33"/>
     </row>
     <row r="123" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C123" s="15"/>
-      <c r="O123" s="39"/>
-      <c r="P123" s="45"/>
+      <c r="O123" s="27"/>
+      <c r="P123" s="33"/>
     </row>
     <row r="124" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C124" s="15"/>
-      <c r="O124" s="39"/>
-      <c r="P124" s="45"/>
+      <c r="O124" s="27"/>
+      <c r="P124" s="33"/>
     </row>
     <row r="125" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C125" s="15"/>
-      <c r="O125" s="39"/>
-      <c r="P125" s="45"/>
+      <c r="O125" s="27"/>
+      <c r="P125" s="33"/>
     </row>
     <row r="126" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C126" s="15"/>
-      <c r="O126" s="39"/>
-      <c r="P126" s="45"/>
+      <c r="O126" s="27"/>
+      <c r="P126" s="33"/>
     </row>
     <row r="127" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C127" s="15"/>
-      <c r="O127" s="39"/>
-      <c r="P127" s="45"/>
+      <c r="O127" s="27"/>
+      <c r="P127" s="33"/>
     </row>
     <row r="128" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C128" s="15"/>
-      <c r="O128" s="39"/>
-      <c r="P128" s="45"/>
+      <c r="O128" s="27"/>
+      <c r="P128" s="33"/>
     </row>
     <row r="129" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C129" s="15"/>
-      <c r="O129" s="39"/>
-      <c r="P129" s="45"/>
+      <c r="O129" s="27"/>
+      <c r="P129" s="33"/>
     </row>
     <row r="130" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C130" s="15"/>
-      <c r="O130" s="39"/>
-      <c r="P130" s="45"/>
+      <c r="O130" s="27"/>
+      <c r="P130" s="33"/>
     </row>
     <row r="131" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C131" s="15"/>
-      <c r="O131" s="39"/>
-      <c r="P131" s="45"/>
+      <c r="O131" s="27"/>
+      <c r="P131" s="33"/>
     </row>
     <row r="132" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C132" s="15"/>
-      <c r="O132" s="39"/>
-      <c r="P132" s="45"/>
+      <c r="O132" s="27"/>
+      <c r="P132" s="33"/>
     </row>
     <row r="133" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C133" s="15"/>
-      <c r="O133" s="39"/>
-      <c r="P133" s="45"/>
+      <c r="O133" s="27"/>
+      <c r="P133" s="33"/>
     </row>
     <row r="134" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C134" s="15"/>
-      <c r="O134" s="39"/>
-      <c r="P134" s="45"/>
+      <c r="O134" s="27"/>
+      <c r="P134" s="33"/>
     </row>
     <row r="135" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C135" s="15"/>
-      <c r="O135" s="39"/>
-      <c r="P135" s="45"/>
+      <c r="O135" s="27"/>
+      <c r="P135" s="33"/>
     </row>
     <row r="136" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C136" s="15"/>
-      <c r="O136" s="39"/>
-      <c r="P136" s="45"/>
+      <c r="O136" s="27"/>
+      <c r="P136" s="33"/>
     </row>
     <row r="137" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C137" s="15"/>
-      <c r="O137" s="39"/>
-      <c r="P137" s="45"/>
+      <c r="O137" s="27"/>
+      <c r="P137" s="33"/>
     </row>
     <row r="138" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C138" s="15"/>
-      <c r="O138" s="39"/>
-      <c r="P138" s="45"/>
+      <c r="O138" s="27"/>
+      <c r="P138" s="33"/>
     </row>
     <row r="139" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C139" s="15"/>
-      <c r="O139" s="39"/>
-      <c r="P139" s="45"/>
+      <c r="O139" s="27"/>
+      <c r="P139" s="33"/>
     </row>
     <row r="140" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C140" s="15"/>
-      <c r="O140" s="39"/>
-      <c r="P140" s="45"/>
+      <c r="O140" s="27"/>
+      <c r="P140" s="33"/>
     </row>
     <row r="141" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C141" s="15"/>
-      <c r="O141" s="39"/>
-      <c r="P141" s="45"/>
+      <c r="O141" s="27"/>
+      <c r="P141" s="33"/>
     </row>
     <row r="142" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C142" s="15"/>
-      <c r="O142" s="39"/>
-      <c r="P142" s="45"/>
+      <c r="O142" s="27"/>
+      <c r="P142" s="33"/>
     </row>
     <row r="143" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C143" s="15"/>
-      <c r="O143" s="39"/>
-      <c r="P143" s="45"/>
+      <c r="O143" s="27"/>
+      <c r="P143" s="33"/>
     </row>
     <row r="144" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C144" s="15"/>
-      <c r="O144" s="39"/>
-      <c r="P144" s="45"/>
+      <c r="O144" s="27"/>
+      <c r="P144" s="33"/>
     </row>
     <row r="145" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C145" s="15"/>
-      <c r="O145" s="39"/>
-      <c r="P145" s="45"/>
+      <c r="O145" s="27"/>
+      <c r="P145" s="33"/>
     </row>
     <row r="146" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C146" s="15"/>
-      <c r="O146" s="39"/>
-      <c r="P146" s="45"/>
+      <c r="O146" s="27"/>
+      <c r="P146" s="33"/>
     </row>
     <row r="147" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C147" s="15"/>
-      <c r="O147" s="39"/>
-      <c r="P147" s="45"/>
+      <c r="O147" s="27"/>
+      <c r="P147" s="33"/>
     </row>
     <row r="148" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C148" s="15"/>
-      <c r="O148" s="39"/>
-      <c r="P148" s="45"/>
+      <c r="O148" s="27"/>
+      <c r="P148" s="33"/>
     </row>
     <row r="149" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C149" s="15"/>
-      <c r="O149" s="39"/>
-      <c r="P149" s="45"/>
+      <c r="O149" s="27"/>
+      <c r="P149" s="33"/>
     </row>
     <row r="150" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C150" s="15"/>
-      <c r="O150" s="39"/>
-      <c r="P150" s="45"/>
+      <c r="O150" s="27"/>
+      <c r="P150" s="33"/>
     </row>
     <row r="151" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C151" s="15"/>
-      <c r="O151" s="39"/>
-      <c r="P151" s="45"/>
+      <c r="O151" s="27"/>
+      <c r="P151" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2220,8 +2235,11 @@
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="Q2:T2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{1DB7C928-8121-4CBA-A9D5-8A9AC903B34F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2239,59 +2257,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">

--- a/Analysis Project Dashboard.xlsx
+++ b/Analysis Project Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukbiocentre-my.sharepoint.com/personal/hema_ramasamy_ukbiocentre_com/Documents/SSD_Core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="8_{15EE82DE-5123-4DFF-9921-4B75CAE48CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{936DF42D-9536-4FB9-853F-76DFBC236A4E}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="8_{15EE82DE-5123-4DFF-9921-4B75CAE48CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13BD88CC-D83D-4AF3-96C5-BF7FBF638DA1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CB353F2-28B3-438A-97A4-6330A8EA22E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
   <si>
     <t>Projects</t>
   </si>
@@ -256,6 +256,21 @@
   </si>
   <si>
     <t xml:space="preserve"> 10 ng/ul</t>
+  </si>
+  <si>
+    <t>&gt; 1.7</t>
+  </si>
+  <si>
+    <t>&gt; 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; 50ng/ul</t>
+  </si>
+  <si>
+    <t>after normalisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; 20ng/ul</t>
   </si>
 </sst>
 </file>
@@ -501,7 +516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,6 +591,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -615,11 +633,17 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -940,7 +964,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -984,7 +1008,7 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="34" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1015,12 +1039,12 @@
         <v>45</v>
       </c>
       <c r="P1" s="29"/>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -1045,12 +1069,12 @@
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="30"/>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
     </row>
     <row r="3" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1062,9 +1086,9 @@
       <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1077,7 +1101,7 @@
         <v>57</v>
       </c>
       <c r="P3" s="30"/>
-      <c r="Q3" s="35"/>
+      <c r="Q3" s="36"/>
       <c r="R3" s="25" t="s">
         <v>59</v>
       </c>
@@ -1111,7 +1135,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="9"/>
       <c r="P4" s="30"/>
-      <c r="Q4" s="36"/>
+      <c r="Q4" s="37"/>
       <c r="R4" s="26" t="s">
         <v>69</v>
       </c>
@@ -1166,7 +1190,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="30"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1187,8 +1211,14 @@
       <c r="N7" s="8"/>
       <c r="O7" s="9"/>
       <c r="P7" s="30"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q7" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+    </row>
+    <row r="8" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>52</v>
       </c>
@@ -1211,8 +1241,18 @@
         <v>46</v>
       </c>
       <c r="P8" s="30"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q8" s="26"/>
+      <c r="R8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>14</v>
       </c>
@@ -1231,8 +1271,20 @@
       <c r="N9" s="19"/>
       <c r="O9" s="20"/>
       <c r="P9" s="30"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q9" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="S9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
@@ -1251,6 +1303,14 @@
       <c r="N10" s="19"/>
       <c r="O10" s="20"/>
       <c r="P10" s="30"/>
+      <c r="Q10" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="49"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="26" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -1275,30 +1335,30 @@
       <c r="P11" s="30"/>
     </row>
     <row r="12" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="40"/>
       <c r="P12" s="31"/>
-      <c r="Q12" s="46" t="s">
+      <c r="Q12" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
     </row>
     <row r="13" spans="1:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -1321,7 +1381,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="40" t="s">
+      <c r="O13" s="41" t="s">
         <v>53</v>
       </c>
       <c r="P13" s="32"/>
@@ -1357,7 +1417,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="41"/>
+      <c r="O14" s="42"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="26" t="s">
         <v>62</v>
@@ -1393,7 +1453,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="41"/>
+      <c r="O15" s="42"/>
       <c r="P15" s="32"/>
       <c r="Q15" s="26" t="s">
         <v>66</v>
@@ -1429,7 +1489,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="41"/>
+      <c r="O16" s="42"/>
       <c r="P16" s="32"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1453,7 +1513,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="41"/>
+      <c r="O17" s="42"/>
       <c r="P17" s="32"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1477,7 +1537,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="41"/>
+      <c r="O18" s="42"/>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1501,7 +1561,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="41"/>
+      <c r="O19" s="42"/>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1525,7 +1585,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="42"/>
+      <c r="O20" s="43"/>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
@@ -2226,7 +2286,7 @@
       <c r="P151" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A12:O12"/>
@@ -2234,6 +2294,8 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="Q12:T12"/>
     <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q10:S10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F1" r:id="rId1" xr:uid="{1DB7C928-8121-4CBA-A9D5-8A9AC903B34F}"/>
@@ -2257,12 +2319,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
@@ -2304,12 +2366,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
